--- a/status_report.xlsx
+++ b/status_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saswatdas/ai_agent_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7BB96F6-EB08-8A4A-9E4B-FC17B026DA2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAA955-8435-AE40-B276-3359B0BF4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="1380" windowWidth="26440" windowHeight="14400" xr2:uid="{DDD15A6C-207A-0748-8728-DF4B270F24A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
   <si>
     <t>Project Name</t>
   </si>
@@ -89,60 +89,176 @@
     <t/>
   </si>
   <si>
-    <t>2025 - MACk (Movements Automatically Connected)</t>
-  </si>
-  <si>
-    <t>PRJ4873250</t>
-  </si>
-  <si>
     <t>Initiating</t>
   </si>
   <si>
-    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Successes:&lt;/strong&gt;&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Carbon IQ: Went live successfully on 23rd June. Hypercare closed at the end of July.&lt;/li&gt;&lt;li&gt;Kendo to SDS Migration Complete on 18th July. Hypercare closed at the end of July.&lt;/li&gt;&lt;li&gt;Project closure in progress, planned to complete end of Aug&lt;/li&gt;&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTG&lt;/strong&gt;:&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Cost (Amber): LE &amp;amp; budget is currently showing $2m for the end of year. Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m. RTG: Raise PCR to return funds and communicate in Steering project closure in Aug.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;NA&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Cost: LE &amp;amp; budget is currently showing $2m for the end of year.  Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m.  RTG:  Close project and return funds.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Successes:&lt;/strong&gt;&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Carbon IQ: Went live successfully on 23rd June. Currently in hypercare through to end of July. No major issues raised, 1 bug being addressed and planned to be deployed 18th July.&lt;/li&gt;&lt;li&gt;Kendo to SDS Migration: 80&amp;#43;% complete - Still on track to be fully completed in July. Deployment planned for 18th July.&lt;/li&gt;&lt;li&gt;Project closure planned for month of August&lt;/li&gt;&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTG&lt;/strong&gt;:&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Cost (Amber): LE &amp;amp; budget is currently showing $2m for the end of year. Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m. RTG: Raise PCR to return funds and communicate in Steering project closure in Aug.&lt;/li&gt;&lt;/ul&gt;
-&lt;p&gt;&lt;span id="__symantecMPKIClientDetector" style="display: none;"&gt;__PRESENT&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;NA&lt;/p&gt;
-&lt;p&gt;&lt;span id="__symantecMPKIClientDetector" style="display: none;"&gt;__PRESENT&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Cost (Amber): LE &amp;amp; budget is currently showing $2m for the end of year.  Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m.  RTG:  Raise PCR to return funds and communicate in Steering project closure in Aug.&lt;/p&gt;
-&lt;p&gt;&lt;span id="__symantecMPKIClientDetector" style="display: none;"&gt;__PRESENT&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt; &lt;/p&gt;
-&lt;p&gt;&lt;span id="__symantecMPKIClientDetector" style="display: none;"&gt;__PRESENT&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agreement to close the project after Carbon IQ hypercare for end of July with Project Closure in Aug &lt;/p&gt;
-&lt;p&gt;&lt;span id="__symantecMPKIClientDetector" style="display: none;"&gt;__PRESENT&lt;/span&gt;&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Successes:&lt;/strong&gt;&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Carbon IQ: Integration test complete, currently in UAT with a planned go-live on 4th July.&lt;/li&gt;&lt;li&gt;Kendo to SDS Migration: 80&amp;#43;% complete - Still on track to be fully completed in July.&lt;/li&gt;&lt;/ul&gt;
-&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTG&lt;/strong&gt;:&lt;/p&gt;
-&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Cost (Amber): LE &amp;amp; budget is currently showing $2m for the end of year. Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m. RTG: Raise PCR to return funds and communicate in Steering project closure in Aug.&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Cost (Amber): LE &amp;amp; budget is currently showing $2m for the end of year.  Completing activities 5 months earlier will result in giveback of funds - approx $0.7-$1m.  RTG:  Raise PCR to return funds and communicate in Steering project closure in Aug.&lt;/p&gt;</t>
-  </si>
-  <si>
-    <t>&lt;p&gt;Agreement to close the project after Carbon IQ hypercare for end of July with Project Closure in Aug &lt;/p&gt;</t>
+    <t>Portfolio manager</t>
+  </si>
+  <si>
+    <t>2025 HVO B7 - LCF IDT</t>
+  </si>
+  <si>
+    <t>PRJ4872962</t>
+  </si>
+  <si>
+    <t>Sandeep Satapathy (GBSSBW)</t>
+  </si>
+  <si>
+    <t>Closing</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Hypercare successfully completed and ATO signed-off as per plan. Project team dispersed. Closure activities are in progress.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;The &amp;#39;HVO B7&amp;#39; tool is projected to generate approximately $3 million per annum in tax rebates for Shell, with the value poised to grow as sales of HVO B7 continue to increase.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTGs:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;None&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>Planning</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Once the data in AMDP production is fixed. AMDP team will inform and work with T&amp;amp;S support to make the appropriate changes in the HVO B7 code to start consuming data from AMDP. Project team already provided hand over to the support team regarding the changes they need to make. &lt;/span&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;To close the project in SNOW. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 13.3333px;"&gt;Hypercare successful completed, after receiving sign-off from Business. &lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Successful cutover and go-live on 3rd July. Currently in hypercare until 31st of July. No issues raised. The &amp;#39;HVO B7&amp;#39; tool is projected to generate approximately $3 million per annum in tax rebates for Shell, with the value poised to grow as sales of HVO B7 continue to increase.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTGs:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;None&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Chemical and Products team is working on fixing the Asset Management Data Platform prod issue. &lt;br /&gt;•  UAT is progressing as per plan, targeted to be completed by June 20th. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;AMDP team to fix the data issue at their end for providing OMM data to the B7 project team to consume in production. &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Successfully conclude User Acceptance Testing by June 20th, according to the schedule.&lt;br /&gt;•  Secure ATD and raise change request for prod deployment. &lt;br /&gt;•  Initiate production cutover activities with the support team by executing the deployment plan.&lt;br /&gt;•  Provide the deployment scripts to the support team, once the final UAT sign-off is secured. &lt;br /&gt;•  Coordinate with various IDSO teams to ensure readiness for production deployment.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Secured partial sign-off for the frontend i.e. UI &amp;amp; UX. The final UAT sign-off to be received once the backend test cases are completed. &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Technical documentation has been finalized and shared with the support team, enhancing project readiness. &lt;br /&gt;&lt;span style="font-size: 10pt;"&gt;•   Knowledge transfer sessions with the support team have been completed.&lt;/span&gt;&lt;br /&gt;&lt;span style="font-size: 10pt;"&gt;•   A baseline user manual has been shared with the business team.&lt;span style="font-family: verdana, geneva;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Deployment plan shared and agreed with the support team.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;UAT is progressing as per plan (approx. 95% completed so far). UAT test cases (Data validation) execution is ongoing, and the development team is working on addressing defect/bug fixes. We aim to complete User Acceptance Testing (UAT) by June 20th, unless we encounter any bug/defect that may require additional time to resolve. Once we receive the final UAT sign-off, we will kick off the production cutover activities. As it stands, we are on track to go live during the week of June 30th. &lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTGs:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): The project status has shifted to Amber due to a dependency on the Asset Management Data Platform (AMDP), managed by the Chemicals &amp;amp; Products CoB team, which is currently experiencing data discrepancy issues with the OMM data in Production. The Chemicals &amp;amp; Products IDT team is actively working with the OMM and PCD teams to resolve these issues and ensure accurate data flow from OMM to AMDP for HVO B7. If the data discrepancies in AMDP production are not resolved before the planned go-live date we will delay the go-live.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Chemical and Products team is working on fixing the Asset Management Data Platform prod issue. &lt;br /&gt;•  UAT is progressing as per plan, targeted to be completed by June 20th. &lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;Worked with CC team and m&lt;/span&gt;&lt;span style="font-size: 10pt;"&gt;anaged to retain the primary data engineer to continue work on the project, hence the associated risk is mitigated now and Resourcing status moved back to Green. &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;Challenge: The project has transitioned to an Amber status due to its dependency on the Asset Management Data Platform (AMDP), which is managed by the Chemicals &amp;amp; Products CoB team. Currently, they are experiencing discrepancies with the OMM production data in AMDP. &lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;Return to Green: The Chemicals &amp;amp; Products IDT team is collaborating with the OMM and PCD teams to address the prod issue and ensure that the correct data flows from OMM to AMDP, enabling HVO B7 to function properly - Commitment for the fix to be in place by 25th June.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;If the data in the AMDP production environment is not corrected before our planned go-live date, it will impact the project&amp;#39;s schedule.&lt;/span&gt;&lt;/p&gt;
+&lt;p&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Secured partial sign-off for the frontend i.e. UI &amp;amp; UX. The final UAT sign-off to be received once the backend test cases are completed. &lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Technical documentation has been finalized and shared with the support team, enhancing project readiness. &lt;/span&gt;&lt;br /&gt;&lt;span style="font-size: 10pt;"&gt;•   Knowledge transfer sessions with the support team have been completed.&lt;/span&gt;&lt;br /&gt;&lt;span style="font-size: 10pt;"&gt;•   A baseline user manual has been shared with the business team.&lt;span style="font-family: verdana, geneva;"&gt; &lt;/span&gt;&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Deployment plan shared and agreed with the support team.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>2025 Planning and Scheduling IDT Work</t>
+  </si>
+  <si>
+    <t>PRJ4897790</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Negotiations with Kinaxis on licenses is near completion, work is in progress on the timeline and cost for the blueprinting, design &amp;amp; detailed planning phase.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT &amp;amp; Business cost estimates have been completed for the GIP. &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT detailed design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc.) is on track. planned to complete end of Sep&amp;#39;25.​&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG Plans:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff, so that the contract with Kinaxis could be signed ASAP.  GIP has been delayed by one month, revised date is now end of Aug.  RTG:  Planned dates are aligned with business stakeholders.  Final signature is with Richard Jory.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Cost (RED): $750k budget approved through to the end of July has been spent. RTG: Sandeep to request bridge funding of $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Value (AMBER): GIP is in draft, IT costs and plans developed, business still refining the actual value case, one month behind plan.  RTG:  Plan to complete and sign-off GIP by end of Aug, aligned with key business stakeholders.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt; $750k budget approved through to the end of July has been spent. RTG: Sandeep to request bridge funding of $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;DRB has asked to target end of July for GIP signoff, so that the contract with Kinaxis could be signed ASAP.  GIP has been delayed by one month, revised date is now end of Aug.  RTG:  Planned dates are aligned with business stakeholders.  Final signature is with Richard Jory.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Progress &amp;amp; Success:&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li&gt;Negotiations with Kinaxis: DRB confirmed walk-away points. Negotiations ongoing and expected to complete by end of July.&lt;/li&gt;&lt;li&gt;Progress: IDT Cost estimates are drafted and being reviewed by the IT LTs, planned to complete by end of 18th July. &lt;/li&gt;&lt;li&gt;IDT detailed design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc.) is on track. planned to complete end of Sep&amp;#39;25.​&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;Challenges &amp;amp; RTG Plans:&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff. This target date is at risk, because the commercial negotiation is taking longer than anticipated and GIP approval likely to go into Aug &amp;#39;25 as it needs Andrew Smith&amp;#39;s approval.&lt;/li&gt;&lt;li&gt;Cost (RED): $750k funding approved for the first 7 months of 2025 but initial stage will continue to the end of Q3, RTG: Sandeep to provide additional budget $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/li&gt;&lt;li&gt;Value (AMBER): 31 m$ / year level 1/level 2 Europe benefits were confirmed, down from 55 m$/year. RTG:  Group Investment Proposal (GIP) to be developed and signed-off as soon as possible based on Europe business case&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Progress &amp;amp; Success:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Negotiations with Kinaxis: DRB confirmed walk-away points. Negotiations ongoing and expected to complete by end July.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;GIP Signoff : Target to sign-off by end July is at risk. IDT Cost estimates are being reviewed. Preliminary NPV calculations are less attractive than previously assumed as the expected value has gone down and the IDT cost &amp;amp; contingency have gone up.​&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc) is on track. ​&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;$750k budget available for H1 2025. Additional short-term budget required for Q3. Full budget requirements to be confirmed after completing the vendor negotiations.​&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Challenges &amp;amp; RTG Plans:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside; list-style-type: disc;"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff. This target date is at risk, because the commercial negotiation is taking longer than anticipated.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Cost (RED): $750k funding approved for the first 6 months of 2025 but initial stage will continue into Q3,  RTG: Sandeep to provide additional budget to cover Q3.&lt;/li&gt;&lt;/ul&gt;
+&lt;ul style="list-style-position: inside; list-style-type: disc; font-size: 10pt;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Value (AMBER): 31 m$ / year level 1/level 2 benefits were confirmed, down from 55 m$/year. RTG:  Group Investment Proposal (GIP) to be developed and signed-off as soon as possible based on Europe business case
+&lt;p&gt; &lt;/p&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Cost (RED): $750k funding approved for the first 6 months of 2025 but initial stage will continue into Q3, RTG: Sandeep to provide additional budget $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff. This target date is at risk, because the commercial negotiation is taking longer than anticipated and GIP approval likely to go into Aug &amp;#39;25 as it needs Andrew Smith&amp;#39;s approval.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Progress &amp;amp; Success:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Contract negotiations have started and are now expected to complete by end of July. After initial negotiations with Kinaxis we have seen improvements from their RFP proposal in areas relating to license costs and expansion costs&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Project being re-planned based on new target date for GIP signoff (End July)&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Good progress on the Design of the integration with the source systems (Data solution)&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;DRB agreed to restrict scope to Europe only. Option to scale to the rest of the world.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Challenges &amp;amp; RTG Plans:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Value (AMBER): 55 – 72 m$ / year European business case was signed off by senior business leaders.
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;RTG: Group Investment Proposal (GIP) to be developed and signed-off by end of July&lt;/p&gt;
+&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): Delay to original plan to have contract with vendor in place. DRB recognise and support&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Cost (AMBER): $750k funding approved for the first 6 months of 2025 but initial stage will continue into Q3, RTG: request from Sandeep and Cao to have GP and PDS council sign-off in July for the European Project full scope.
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Progress &amp;amp; Success:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Contract negotiations have started and are now expected to complete by end of July.  After initial negotiations with Kinaxis we have seen improvements from their RFP proposal in areas relating to license costs and expansion costs&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Project being re-planned based on new target date for GIP signoff (to be confirmed)&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Good progress on the Design of the integration with the source systems (Data solution) Target to start development 1st July.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Challenges &amp;amp; RTG Plans:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 11pt; font-family: Aptos, sans-serif;"&gt;Scope (AMBER): Clarity required on EU vs Global scope. There is high confidence the current solution based on Europe scope can be scaled to NA and East, detailed process study &amp;amp; confirmation is not expected before the end of 2025. The       Europe implementation, which was planned to start in Q4 2025, will be delayed if this confirmation is a pre-requisite for signing the Kinaxis contract.
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; RTG: Escalate to DRB on June 4th; DRB to decide between 2 options &lt;/p&gt;
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; 1) Proceed with Europe now&lt;/p&gt;
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; 2) Delay Europe to confirm scalability to NA / East &lt;/p&gt;
+&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Value (AMBER): 55 – 72 m$ / year European business case was signed off by senior business leaders.
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; RTG:  Global Investment Proposal (GIP) to be developed and signed-off as soon as possible.&lt;/p&gt;
+&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (RED): Based on current negotiations, headline size will be greater than $20M, GIP required before signing contract. Team started drafting GIP which needs to be completed before contract can be signed.  Expected to delay     signing by 2-3 months. RTG : Escalate to DRB; Request support for an accelerated signoff timeline. Due date - June 4th&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Cost (AMBER): $750k funding approved for the first 6 months of 2025 but initial stage will continue into Q3,  RTG: CR to be raised and approved in DRB for funding through to GIP &amp;amp; Vendor negotiation completion.
+&lt;p style="margin: 0cm; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;$750k funding approved for the first 6 months of 2025 but initial stage will continue into Q3,  RTG: request from Sandeep and Cao to have GP and PDS council sign-off in July for the European Project.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Development on hold in July&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Based on current negotiations, headline size will be greater than $20M, GIP required before signing contract. Team started drafting GIP which needs to be completed before contract can be signed.  DRB has asked to target emd of July for GIP&lt;/p&gt;
+&lt;p&gt;RTG : Seek support from DRB members to accelerate process &amp;amp; steps&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;DRB agreed to restrict scope to Europe only. Option to scale to the rest of the world.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Negotiations with Kinaxis on licenses is near completion, work is in progress on the timeline and cost for the blueprinting, design &amp;amp; detailed planning phase.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT &amp;amp; Business cost estimates have been completed for the GIP. &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT detailed design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc.) is on track. planned to complete end of Sep&amp;#39;25.​&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG Plans:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;fsfa
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff, so that the contract with Kinaxis could be signed ASAP. GIP has been delayed by one month, revised date is now end of Aug. RTG: Planned dates are aligned with business stakeholders. Final signature is with Richard Jory.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Cost (RED): $750k budget approved through to the end of July has been spent. RTG: Sandeep to request bridge funding of $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/li&gt;&lt;li.  style="font-size: 10pt;"&gt;Value (AMBER): GIP is in draft, IT costs and plans developed, business still refining the actual value case, one month behind plan. RTG: Plan to complete and sign-off GIP by end of Aug, aligned with key business stakeholders.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Negotiations with Kinaxis on licenses is near completion, work is in progress on the timeline and cost for the blueprinting, design &amp;amp; detailed planning phase.&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;IDT &amp;amp; Business cost estimates have been completed for the GIP. &lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;IDT detailed design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc.) is on track. planned to complete end of Sep&amp;#39;25.​&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG Plans:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff, so that the contract with Kinaxis could be signed ASAP. GIP has been delayed by one month, revised date is now end of Aug. RTG: Planned dates are aligned with business stakeholders. Final signature is with Richard Jory.&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Cost (RED): $750k budget approved through to the end of July has been spent. RTG: Sandeep to request bridge funding of $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Value (AMBER): GIP is in draft, IT costs and plans developed, busffiness still refining the actual value case, one month behind plan. RTG: Plan to complete and sign-off GIP by end of Aug, aligned with key business stakeholders.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Progress &amp;amp; Success:&lt;/span&gt;&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;Negotiations with Kinaxis: DRB confirmed walk-away points. Negotiations ongoing and expected to complete by end of July.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Progress: IDT Cost estimates are drafted and being reviewed by the IT LTs, planned to complete by end of 18th July. &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IDT detailed design work on integration between Planning &amp;amp; Scheduling and source systems (GSAP, DEX, etc.) is on track. planned to complete end of Sep&amp;#39;25.​&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;&lt;span style="font-size: 10pt;"&gt;Challenges &amp;amp; RTG Plans:&lt;/span&gt;da&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;" type="disc"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Schedule (AMBER): DRB has asked to target end of July for GIP signoff. This target date is at risk, because the commercial negotiation is taking longer than anticipated and GIP approval likely to go into Aug &amp;#39;25 as it needs Andrew Smith&amp;#39;s approval.&lt;/span&gt;&lt;/li&gt;&lt;li style="color: rgb(0, 0, 0); font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Cost (RED): $750k funding approved for the first 7 months of 2025 but initial stage will continue to the end of Q3, RTG: Sandeep to provide additional budget $250k cover until end of Sep&amp;#39;25 and GIP approval.&lt;/span&gt;&lt;/li&gt;&lt;li style="font-size: 10pt; text-align: left;"&gt;Value (AMBER): 31 m$ / year level 1/level 2 Europe benefits were confirmed, down from 55 m$/year. RTG: Group Investment Proposal (GIP) to be developed and signed-off as soon as possible based on Europe business case&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sandeep Satapathy (GBSSBW) </t>
+  </si>
+  <si>
+    <t>test1</t>
   </si>
 </sst>
 </file>
@@ -167,21 +283,15 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor theme="0" tint="-0.14999847407452621"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -200,28 +310,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -231,18 +326,7 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -577,468 +661,497 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CC5780-0885-9F4C-B9E7-A42EDA54B6F5}">
-  <dimension ref="A1:P9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:P9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="36.1640625" customWidth="1"/>
-    <col min="4" max="4" width="18" hidden="1" customWidth="1"/>
-    <col min="5" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="36.1640625" customWidth="1"/>
+    <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
+    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="2">
+        <v>46034.708333333336</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45674.333333333336</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45901.728564814817</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" s="2">
+        <v>46034.708333333336</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45674.333333333336</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45901.501423611109</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="2">
+        <v>46034.708333333336</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45674.333333333336</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45870.501863425925</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="2">
+        <v>46034.708333333336</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45674.333333333336</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45839.501863425925</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="2">
+        <v>46477.708333333336</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45686.333333333336</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45901.257870370369</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D2" s="4">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E2" s="4">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F2" s="4">
-        <v>45901.720659722225</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="6" t="s">
+      <c r="I6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="340" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="7" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E7" s="2">
+        <v>46387.708333333336</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45686.333333333336</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45901.502523148149</v>
+      </c>
+      <c r="H7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="4">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E3" s="4">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F3" s="4">
-        <v>45901.502546296295</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="I7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="6" t="s">
+      <c r="D8" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="2">
+        <v>46387.708333333336</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45686.333333333336</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45870.501944444448</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="4" t="s">
+    <row r="9" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="2">
+        <v>46022.708333333336</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45686.333333333336</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45839.501932870371</v>
+      </c>
+      <c r="H9" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" s="4">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E4" s="4">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F4" s="4">
-        <v>45870.501863425925</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="M4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="N4" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="4">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E5" s="4">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F5" s="4">
-        <v>45839.501863425925</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E6" s="2">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45901.720659722225</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="340" x14ac:dyDescent="0.2">
-      <c r="A7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E7" s="4">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F7" s="4">
-        <v>45901.502546296295</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="2">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E8" s="2">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F8" s="2">
-        <v>45870.501863425925</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="7">
-        <v>46022.666666666664</v>
-      </c>
-      <c r="E9" s="7">
-        <v>45677.291666666664</v>
-      </c>
-      <c r="F9" s="7">
-        <v>45839.501863425925</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="M9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="N9" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="O9" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="8" t="s">
+      <c r="I9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q9" s="4" t="s">
         <v>16</v>
       </c>
     </row>

--- a/status_report.xlsx
+++ b/status_report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saswatdas/ai_agent_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2CAA955-8435-AE40-B276-3359B0BF4A67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608F8D3A-FAB3-2841-9371-C5E526A1DF83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2360" yWindow="1380" windowWidth="26440" windowHeight="14400" xr2:uid="{DDD15A6C-207A-0748-8728-DF4B270F24A1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="85">
   <si>
     <t>Project Name</t>
   </si>
@@ -50,15 +50,9 @@
     <t>Planned end date</t>
   </si>
   <si>
-    <t>Planned start date</t>
-  </si>
-  <si>
     <t>Updated</t>
   </si>
   <si>
-    <t>Phase</t>
-  </si>
-  <si>
     <t>Business Value Comment</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
     <t/>
   </si>
   <si>
-    <t>Initiating</t>
-  </si>
-  <si>
     <t>Portfolio manager</t>
   </si>
   <si>
@@ -102,18 +93,12 @@
   </si>
   <si>
     <t>Sandeep Satapathy (GBSSBW)</t>
-  </si>
-  <si>
-    <t>Closing</t>
   </si>
   <si>
     <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Hypercare successfully completed and ATO signed-off as per plan. Project team dispersed. Closure activities are in progress.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;The &amp;#39;HVO B7&amp;#39; tool is projected to generate approximately $3 million per annum in tax rebates for Shell, with the value poised to grow as sales of HVO B7 continue to increase.&lt;/li&gt;&lt;/ul&gt;
 &lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTGs:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
 &lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;None&lt;/li&gt;&lt;/ul&gt;</t>
-  </si>
-  <si>
-    <t>Planning</t>
   </si>
   <si>
     <t>&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;Once the data in AMDP production is fixed. AMDP team will inform and work with T&amp;amp;S support to make the appropriate changes in the HVO B7 code to start consuming data from AMDP. Project team already provided hand over to the support team regarding the changes they need to make. &lt;/span&gt;&lt;br /&gt;&lt;br /&gt;&lt;/li&gt;&lt;/ul&gt;</t>
@@ -260,6 +245,158 @@
   <si>
     <t>test1</t>
   </si>
+  <si>
+    <t>Downstream Exchange Product (DSX)</t>
+  </si>
+  <si>
+    <t>PRJ0016435</t>
+  </si>
+  <si>
+    <t>David Gilmour (WYDGIU)</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation:
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Technical &amp;amp; functional readiness on track for Sept; Pilot customer may not be able to participate as internal reorg is taking their focus, still planned to show by end of Aug the demo. Alternative customers identified for pilot if required.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;ICE Derived data license on the critical path &lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;PEN Test completed without any major or critical findings&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Global Support Model: Internal model being discussed with the IT Management. Final step is to go to Owen O&amp;#39;Connell in Sept for approval.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Henry Hub onboarding onto DSX has begun, planned to complete testing by end of year with a go-live in H1 2026&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (Red): Externalisation: Market Data Agreements may not be agreed with ICE exchange prior to go-live. Need agreement by end of Aug if we are to stick with the go-live end of Sept.
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;RTG: Legal drafting a letter to reinstate ask, Graham to follow up with a F2F meeting with the exchange.&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;n/a&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;Schedule (Red): Externalisation: Market Data Agreements may not be agreed with ICE exchange prior to go-live.  Need agreement by end of Aug if we are to stick with the go-live end of Sept.&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="list-style-type: none; font-size: 10pt;"&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;RTG: Legal drafting a letter to reinstate ask, Graham to follow up with a F2F meeting with the exchange.&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;14th Aug -&lt;/strong&gt; DSX v116, AES v5.9 &amp;amp; DSP v2.70 Release is scheduled for Production deployment on Thursday, 14th August. This release includes a set of new features, enhancements, and bug fixes, along with additional changes supporting the Externalization capability, which is targeted to go live later this quarter.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;21st Aug -&lt;/strong&gt; A Disaster Recovery (DR) capability proving exercise is scheduled for 21st August as part of our annual operational resilience strategy. This critical activity ensures our ability to recover services during major incidents, supports compliance requirements, and reinforces confidence in our failover and recovery capabilities. For this activity, the focus will be on proving DR capability for DSX, excluding other components (AES &amp;amp; DSP) from this exercise.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;8th July -&lt;/strong&gt; Trading Technologies (TT) released an updated &lt;strong&gt;TTFIX.crt&lt;/strong&gt; file, which contained the public certificates required for connectivity to TT’s FIX endpoint. These certificates are subject to annual renewal and must be updated to maintain uninterrupted service.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;TT recommended that the updated file be implemented &lt;strong&gt;prior to 11th July&lt;/strong&gt;, as the existing certificates were due to expire on that date.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;The update was successfully applied to &lt;strong&gt;AES Production&lt;/strong&gt; on &lt;strong&gt;Tuesday, 8th July at 8 PM UK&lt;/strong&gt;.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;17th July -&lt;/strong&gt; Successfully established and enabled AES-to-TT VPN connectivity in Production, transitioning from public internet to a secure VPN channel for enhanced reliability and security.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;17th July -&lt;/strong&gt; DSX v115, AES v5.8 &amp;amp; DSP v2.69 were successfully deployed to Production, marking a key milestone in our strategic roadmap. This release delivered new features and enhancements,&lt;strong&gt; &lt;/strong&gt;and also included foundational changes supporting upcoming Externalization and FX Hedging capabilities, both scheduled to go live later this year.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;Schedule (Red): Externalisation: Market Data Agreements may not be agreed with ICE exchange prior to go-live.  Need agreement by end of Aug if we are to stick with the go-live end of Sept.&lt;/span&gt;&lt;/p&gt;
+&lt;ul&gt;&lt;li style="list-style-type: none; font-size: 10pt;"&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;&lt;span style="font-size: 10pt;"&gt;RTG: Legal drafting a letter to reinstate ask, Graham to follow up with a F2F meeting with the exchange.&lt;/span&gt;&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;8th July -&lt;/strong&gt; Trading Technologies (TT) released an updated &lt;strong&gt;TTFIX.crt&lt;/strong&gt; file, which contained the public certificates required for connectivity to TT’s FIX endpoint. These certificates are subject to annual renewal and must be updated to maintain uninterrupted service.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;TT recommended that the updated file be implemented &lt;strong&gt;prior to 11th July&lt;/strong&gt;, as the existing certificates were due to expire on that date.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;The update was successfully applied to &lt;strong&gt;AES Production&lt;/strong&gt; on &lt;strong&gt;Tuesday, 8th July at 8 PM UK&lt;/strong&gt;.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;17th July -&lt;/strong&gt; Successfully established and enabled AES-to-TT VPN connectivity in Production, transitioning from public internet to a secure VPN channel for enhanced reliability and security.&lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt; &lt;/p&gt;
+&lt;p style="margin: 0in; font-size: 11pt; font-family: Aptos, sans-serif;"&gt;&lt;strong&gt;17th July -&lt;/strong&gt; DSX v115, AES v5.8 &amp;amp; DSP v2.69 were successfully deployed to Production, marking a key milestone in our strategic roadmap. This release delivered new features and enhancements,&lt;strong&gt; &lt;/strong&gt;and also included foundational changes supporting upcoming Externalization and FX Hedging capabilities, both scheduled to go live later this year.&lt;/p&gt;
+&lt;p&gt;&lt;span style="font-size: 11.0pt; font-family: Aptos, sans-serif;"&gt;&lt;br /&gt;&lt;br /&gt;&lt;/span&gt;&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation:
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation name has been agreed with the business (eMarkets) and the external infrastructure for Dev &amp;amp; UAT has been built, Prod in Progress.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation - MVP Web App developed, Integration testing completed, business to review and continue business testing as part of the DSX releases. Business are likely to show an external client at the end of the month a demo (Shell location).&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation: Development completed with the external authentication platform (CIPM), now in UAT.&lt;/li&gt;&lt;/ul&gt;
+&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Global Support Model: Internal model being discussed with the IT Management&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;AES Tech Lead position is now filled&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (Amber): Externalisation: Security developments slightly behind plan, impacting the PEN test timeline, risk that if there are findings in the PEN test we may not go live in Sept. RTG track progress and see if additional resources would help improve the delivery.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;UAT testing and PROD deployment of DSX v115, AES v5.8, DSP v70&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;successful PROD Deployment of -  DSX v114, AES v5.7, DSP v69&lt;/p&gt;
+&lt;p&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation name has been agreed with the business (eMarkets) and the external infrastructure for Dev &amp;amp; UAT has been built, Prod in Progress.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Externalisation - MVP Web App developed, Testing will start in July with the business and be demonstrated to the pilot customer end of July.&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Global Support Model: ABC proposal received and being assessed along with an updated internal model&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;IRM Control work now completed and now supported by SOM rather than the project. Now can be operated by SOM and project under agreement to co - operate &lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;span style="font-size: 10pt;"&gt;&lt;strong&gt;Challenges &amp;amp; RTG:&lt;/strong&gt;&lt;/span&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (Amber): FX hedging [Green]: FX Hedging Go live now replanned after receiving revised dates from Bloomberg&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Resources (Amber): Hiring of AES tech lead remains challenging RTG Plan: Continue to Onboard Niche recruiters&lt;/li&gt;&lt;li style="font-size: 10pt;"&gt;Schedule (Amber): Externalisation: Security developments slightly behind plan, impacting the PEN test timeline, risk that if there are findings in the PEN test we may not go live in Sept. RTG track progress and see if additional resources would help improve the delivery.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;div&gt;FX hedging [Red]: Bloomberg have communicated a Q3 delivery timeline.&lt;/div&gt;
+&lt;div&gt;RTG Plan: escalated to D. Gardner (FXGO PO) but no change in plan.&lt;/div&gt;
+&lt;div&gt;Externalisation: Security developments slightly behind plan, impacting the PEN test timeline, risk that if there are findings in the PEN test we may not go live in Sept.  RTG  track progress and see if additional resources would help improve the delivery.&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;UAT testing and PROD deployment of DSX v114, AES v5.7, DSP v69&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;successful PROD Deployment of -  DSX v113,  AES v5.6, AES DSP v68&lt;/p&gt;
+&lt;p&gt;Externalization Node infrastructure now deployed&lt;/p&gt;
+&lt;p&gt; &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>Deal Entry Portal (DEP)</t>
+  </si>
+  <si>
+    <t>PRJ0022729</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;New Houston based developer has joined the team, this is the start of the team build-out in the US to support the eMarketplace replacement work&lt;/li&gt;&lt;li&gt;European Spread Options successfully deployed to production&lt;/li&gt;&lt;li&gt;Phase 1 structuring work deployed with additional manual deal entry products supported&lt;/li&gt;&lt;li&gt;Henry Hub project kick-off completed&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTC:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Morgan Stanley (Euronext) connectivity not working and response from the bank have been lacklustre, this has been escalated to the business to put pressure on resolution, we have some conference calls now arranged between the network teams&lt;/li&gt;&lt;li&gt;Additional BA &amp;amp; Dev need to be hired into Houston and resume quality remains unsatisfactory, this will extend times to build the team&lt;/li&gt;&lt;li&gt;Endur resources have not arrived as anticipated as they have been prioritised by the cc onto other projects.&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Costs are in line with budgets&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Senior Developer has started in Houston&lt;/p&gt;
+&lt;p&gt;Looking to hire an additional developer and BA in Houston to support the eMarketplace work and wider DSX program adoption in US&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Most deliverables remain on track&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;eMarketplace replacement budget approved for 2025 by PDS council&lt;/li&gt;&lt;li&gt;Mobile work rolled out to all traders (subject to permisisoning)&lt;/li&gt;&lt;li&gt;Structuring work has entered UAT testing as DEX work has completed, Planned to complete UAT by 18th July, Go-live date still be discussed with DEX SOM &amp;amp; their release dates&lt;/li&gt;&lt;li&gt;Morgan Stanley (Euronext) development complete, waiting on Firewalls change to finalise the E2E connectivity - requested via ServiceNow.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTC:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;None&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;We remain in an amber state as we cannot staff the team in Houston.  &lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Costs have moved back in line with budget following the release of contingency&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Senior Developer role has been identified and will start on 4th Aug.&lt;/p&gt;
+&lt;p&gt;Looking to hire an additional developer and BA in Houston to support the eMarketplace work and wider DSX program adoption in US&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Scope returns to green following agreement by PDS to increase scope to include eMarketplace&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;&lt;strong&gt;Progress &amp;amp; Success:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Compete the ADA and Norske work (subject to services available from ADA)&lt;/li&gt;&lt;li&gt;Review the Fees work with ETD Ops for both the broker charges and TT market data reports&lt;/li&gt;&lt;li&gt;EMarketplace PoC complete, conversations continue on scope (Crude in or out?) and fully functionality required. Get agreement on starting eMarketplace replacement and agree scope.&lt;/li&gt;&lt;/ul&gt;
+&lt;p&gt;&lt;strong&gt;Challenges &amp;amp; RTC:&lt;/strong&gt;&lt;/p&gt;
+&lt;ul style="list-style-position: inside;"&gt;&lt;li&gt;Hiring Python developer into Houston is remaining challenges with few CVs looking suitable, we are being supported by CC&lt;/li&gt;&lt;li&gt;Additional RPLN&amp;#39;s raised for eMarketplace replacement team,going through SVP approval, needs additional funding or contingency releasing&lt;/li&gt;&lt;li&gt;Scope (AMBER): eMarketplace scope to be agreed RTG: Cat to help Richard and Stacy make a decision on scope of eMarketplace..&lt;/li&gt;&lt;/ul&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;We remain in an amber state as we cannot staff the team in Houston.  Costs are high as we are setting up a US team to support the eMarketplace work.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Cost are high as LE contains additional staff costs to setup Houston dev team for eMarketplace development.  Additional funding/contingency being requested.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Hiring into Houston remain to be a challenge we have not yet identified a suitable candidate for the Senior Developer role.  We are working with the CC leads and recruitment to try and get suitable candidates from the market. RTG: Action with Tamia to find appropriate resource.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <t>&lt;p&gt;Scope (AMBER): eMarketplace scope to be agreed RTG: Cat to help Richard and Stacy make a decision on scope of eMarketplace..&lt;/p&gt;</t>
+  </si>
 </sst>
 </file>
 
@@ -268,7 +405,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -282,13 +419,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -314,7 +464,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -327,6 +477,12 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -661,10 +817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4CC5780-0885-9F4C-B9E7-A42EDA54B6F5}">
-  <dimension ref="A1:Q9"/>
+  <dimension ref="A1:O171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F18" sqref="F18:F171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -673,12 +829,17 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="36.1640625" customWidth="1"/>
     <col min="5" max="5" width="18" hidden="1" customWidth="1"/>
-    <col min="6" max="7" width="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="17.1640625" customWidth="1"/>
+    <col min="10" max="10" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="19.6640625" customWidth="1"/>
+    <col min="12" max="12" width="21" customWidth="1"/>
+    <col min="13" max="13" width="23.33203125" customWidth="1"/>
+    <col min="14" max="14" width="75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -686,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
@@ -724,436 +885,1220 @@
       <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="E2" s="2">
         <v>46034.708333333336</v>
       </c>
-      <c r="F2" s="2">
-        <v>45674.333333333336</v>
-      </c>
-      <c r="G2" s="2">
-        <v>45901.728564814817</v>
+      <c r="F2" s="6">
+        <v>45905.395578703705</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="372" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q2" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="E3" s="2">
         <v>46034.708333333336</v>
       </c>
-      <c r="F3" s="2">
-        <v>45674.333333333336</v>
-      </c>
-      <c r="G3" s="2">
-        <v>45901.501423611109</v>
+      <c r="F3" s="6">
+        <v>45904.307430555556</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="O3" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B4" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E4" s="2">
         <v>46034.708333333336</v>
       </c>
-      <c r="F4" s="2">
-        <v>45674.333333333336</v>
-      </c>
-      <c r="G4" s="2">
-        <v>45870.501863425925</v>
+      <c r="F4" s="6">
+        <v>45904.3203587963</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H4" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="B5" s="2" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" s="2">
         <v>46034.708333333336</v>
       </c>
-      <c r="F5" s="2">
-        <v>45674.333333333336</v>
-      </c>
-      <c r="G5" s="2">
-        <v>45839.501863425925</v>
+      <c r="F5" s="6">
+        <v>45903.785520833335</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="O5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q5" s="4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="E6" s="2">
         <v>46477.708333333336</v>
       </c>
-      <c r="F6" s="2">
-        <v>45686.333333333336</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45901.257870370369</v>
+      <c r="F6" s="6">
+        <v>45905.101770833331</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2">
         <v>46387.708333333336</v>
       </c>
-      <c r="F7" s="2">
-        <v>45686.333333333336</v>
-      </c>
-      <c r="G7" s="2">
-        <v>45901.502523148149</v>
+      <c r="F7" s="6">
+        <v>45902.841087962966</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E8" s="2">
         <v>46387.708333333336</v>
       </c>
-      <c r="F8" s="2">
-        <v>45686.333333333336</v>
-      </c>
-      <c r="G8" s="2">
-        <v>45870.501944444448</v>
+      <c r="F8" s="6">
+        <v>45901.404849537037</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17" ht="409.6" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E9" s="2">
         <v>46022.708333333336</v>
       </c>
-      <c r="F9" s="2">
-        <v>45686.333333333336</v>
-      </c>
-      <c r="G9" s="2">
-        <v>45839.501932870371</v>
+      <c r="F9" s="6">
+        <v>45901.326550925929</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>14</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="2">
+        <v>46022.708333333336</v>
+      </c>
+      <c r="F10" s="6">
+        <v>45901.210474537038</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L10" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="2">
+        <v>46022.708333333336</v>
+      </c>
+      <c r="F11" s="6">
+        <v>45901.316435185188</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="M11" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N11" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E12" s="2">
+        <v>46022.708333333336</v>
+      </c>
+      <c r="F12" s="6">
+        <v>45904.648796296293</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N12" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="2">
+        <v>46022.708333333336</v>
+      </c>
+      <c r="F13" s="6">
+        <v>45901.318425925929</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="I13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="2">
+        <v>46118.708333333336</v>
+      </c>
+      <c r="F14" s="6">
+        <v>45901.724537037036</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="187" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="2">
+        <v>46118.708333333336</v>
+      </c>
+      <c r="F15" s="6">
+        <v>45905.641030092593</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="N15" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" s="2">
+        <v>46118.708333333336</v>
+      </c>
+      <c r="F16" s="6">
+        <v>45903.489340277774</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J16" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" ht="409.6" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="2">
+        <v>46118.708333333336</v>
+      </c>
+      <c r="F17" s="6">
+        <v>45901.728564814817</v>
+      </c>
+      <c r="G17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="K17" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="N17" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F24" s="7"/>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F35" s="6"/>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F37" s="6"/>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F39" s="6"/>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F40" s="6"/>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F41" s="6"/>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F42" s="6"/>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F43" s="6"/>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F44" s="6"/>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F45" s="6"/>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F46" s="6"/>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F47" s="6"/>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F48" s="6"/>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F49" s="6"/>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F50" s="6"/>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F51" s="6"/>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F52" s="6"/>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F53" s="6"/>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F54" s="6"/>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F55" s="6"/>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F56" s="6"/>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F57" s="6"/>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F58" s="6"/>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F59" s="6"/>
+    </row>
+    <row r="60" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F60" s="6"/>
+    </row>
+    <row r="61" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F61" s="6"/>
+    </row>
+    <row r="62" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F62" s="6"/>
+    </row>
+    <row r="63" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F63" s="6"/>
+    </row>
+    <row r="64" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F64" s="6"/>
+    </row>
+    <row r="65" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F65" s="6"/>
+    </row>
+    <row r="66" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F66" s="6"/>
+    </row>
+    <row r="67" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F67" s="6"/>
+    </row>
+    <row r="68" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F68" s="6"/>
+    </row>
+    <row r="69" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F69" s="6"/>
+    </row>
+    <row r="70" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F70" s="6"/>
+    </row>
+    <row r="71" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F71" s="6"/>
+    </row>
+    <row r="72" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F72" s="6"/>
+    </row>
+    <row r="73" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F73" s="6"/>
+    </row>
+    <row r="74" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F74" s="6"/>
+    </row>
+    <row r="75" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F75" s="6"/>
+    </row>
+    <row r="76" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F76" s="6"/>
+    </row>
+    <row r="77" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F77" s="6"/>
+    </row>
+    <row r="78" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F78" s="6"/>
+    </row>
+    <row r="79" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F79" s="6"/>
+    </row>
+    <row r="80" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F80" s="6"/>
+    </row>
+    <row r="81" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F81" s="6"/>
+    </row>
+    <row r="82" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F82" s="6"/>
+    </row>
+    <row r="83" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F83" s="6"/>
+    </row>
+    <row r="84" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F84" s="6"/>
+    </row>
+    <row r="85" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F85" s="6"/>
+    </row>
+    <row r="86" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F86" s="6"/>
+    </row>
+    <row r="87" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F87" s="6"/>
+    </row>
+    <row r="88" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F88" s="6"/>
+    </row>
+    <row r="89" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F89" s="6"/>
+    </row>
+    <row r="90" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F90" s="6"/>
+    </row>
+    <row r="91" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F91" s="6"/>
+    </row>
+    <row r="92" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F92" s="6"/>
+    </row>
+    <row r="93" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F93" s="6"/>
+    </row>
+    <row r="94" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F94" s="6"/>
+    </row>
+    <row r="95" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F95" s="6"/>
+    </row>
+    <row r="96" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F96" s="6"/>
+    </row>
+    <row r="97" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F97" s="6"/>
+    </row>
+    <row r="98" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F98" s="6"/>
+    </row>
+    <row r="99" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F99" s="6"/>
+    </row>
+    <row r="100" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F100" s="6"/>
+    </row>
+    <row r="101" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F101" s="6"/>
+    </row>
+    <row r="102" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F102" s="6"/>
+    </row>
+    <row r="103" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F103" s="6"/>
+    </row>
+    <row r="104" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F104" s="6"/>
+    </row>
+    <row r="105" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F105" s="6"/>
+    </row>
+    <row r="106" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F106" s="6"/>
+    </row>
+    <row r="107" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F107" s="6"/>
+    </row>
+    <row r="108" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F108" s="6"/>
+    </row>
+    <row r="109" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F109" s="6"/>
+    </row>
+    <row r="110" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F110" s="6"/>
+    </row>
+    <row r="111" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F111" s="6"/>
+    </row>
+    <row r="112" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F112" s="6"/>
+    </row>
+    <row r="113" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F113" s="6"/>
+    </row>
+    <row r="114" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F114" s="6"/>
+    </row>
+    <row r="115" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F115" s="6"/>
+    </row>
+    <row r="116" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F116" s="6"/>
+    </row>
+    <row r="117" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F117" s="6"/>
+    </row>
+    <row r="118" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F118" s="6"/>
+    </row>
+    <row r="119" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F119" s="6"/>
+    </row>
+    <row r="120" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F120" s="6"/>
+    </row>
+    <row r="121" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F121" s="6"/>
+    </row>
+    <row r="122" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F122" s="6"/>
+    </row>
+    <row r="123" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F123" s="6"/>
+    </row>
+    <row r="124" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F124" s="6"/>
+    </row>
+    <row r="125" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F125" s="6"/>
+    </row>
+    <row r="126" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F126" s="6"/>
+    </row>
+    <row r="127" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F127" s="6"/>
+    </row>
+    <row r="128" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F128" s="7"/>
+    </row>
+    <row r="129" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F129" s="6"/>
+    </row>
+    <row r="130" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F130" s="6"/>
+    </row>
+    <row r="131" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F131" s="6"/>
+    </row>
+    <row r="132" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F132" s="6"/>
+    </row>
+    <row r="133" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F133" s="6"/>
+    </row>
+    <row r="134" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F134" s="6"/>
+    </row>
+    <row r="135" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F135" s="6"/>
+    </row>
+    <row r="136" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F136" s="6"/>
+    </row>
+    <row r="137" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F137" s="6"/>
+    </row>
+    <row r="138" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F138" s="6"/>
+    </row>
+    <row r="139" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F139" s="6"/>
+    </row>
+    <row r="140" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F140" s="6"/>
+    </row>
+    <row r="141" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F141" s="6"/>
+    </row>
+    <row r="142" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F142" s="6"/>
+    </row>
+    <row r="143" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F143" s="6"/>
+    </row>
+    <row r="144" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F144" s="6"/>
+    </row>
+    <row r="145" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F145" s="6"/>
+    </row>
+    <row r="146" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F146" s="6"/>
+    </row>
+    <row r="147" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F147" s="6"/>
+    </row>
+    <row r="148" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F148" s="6"/>
+    </row>
+    <row r="149" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F149" s="6"/>
+    </row>
+    <row r="150" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F150" s="6"/>
+    </row>
+    <row r="151" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F151" s="6"/>
+    </row>
+    <row r="152" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F152" s="6"/>
+    </row>
+    <row r="153" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F153" s="6"/>
+    </row>
+    <row r="154" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F154" s="6"/>
+    </row>
+    <row r="155" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F155" s="6"/>
+    </row>
+    <row r="156" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F156" s="6"/>
+    </row>
+    <row r="157" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F157" s="6"/>
+    </row>
+    <row r="158" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F158" s="6"/>
+    </row>
+    <row r="159" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F159" s="6"/>
+    </row>
+    <row r="160" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F160" s="6"/>
+    </row>
+    <row r="161" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F161" s="6"/>
+    </row>
+    <row r="162" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F162" s="6"/>
+    </row>
+    <row r="163" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F163" s="6"/>
+    </row>
+    <row r="164" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F164" s="6"/>
+    </row>
+    <row r="165" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F165" s="6"/>
+    </row>
+    <row r="166" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F166" s="6"/>
+    </row>
+    <row r="167" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F167" s="6"/>
+    </row>
+    <row r="168" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F168" s="6"/>
+    </row>
+    <row r="169" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F169" s="6"/>
+    </row>
+    <row r="170" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F170" s="6"/>
+    </row>
+    <row r="171" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F171" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/status_report.xlsx
+++ b/status_report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/saswatdas/ai_agent_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5A5997E-E822-3C49-9A69-03DD40439074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E77006E2-4BFB-2149-BEA7-59642B87940F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2660" yWindow="1620" windowWidth="26440" windowHeight="14400" xr2:uid="{DDD15A6C-207A-0748-8728-DF4B270F24A1}"/>
+    <workbookView xWindow="2360" yWindow="1620" windowWidth="26440" windowHeight="14400" xr2:uid="{DDD15A6C-207A-0748-8728-DF4B270F24A1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
